--- a/catsmat/Documentation/Trigram results for Proportional canons.xlsx
+++ b/catsmat/Documentation/Trigram results for Proportional canons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="255">
   <si>
     <t>trigrams</t>
   </si>
@@ -706,6 +706,84 @@
   </si>
   <si>
     <t xml:space="preserve">undefined </t>
+  </si>
+  <si>
+    <t>contour duples</t>
+  </si>
+  <si>
+    <t>leapdown-leapdown</t>
+  </si>
+  <si>
+    <t>leapdown-stepdown</t>
+  </si>
+  <si>
+    <t>leapdown-repeat</t>
+  </si>
+  <si>
+    <t>leapdown-stepup</t>
+  </si>
+  <si>
+    <t>leapdown-leapup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leapdown-undefined </t>
+  </si>
+  <si>
+    <t>stepdown-leapdown</t>
+  </si>
+  <si>
+    <t>stepdown-repeat</t>
+  </si>
+  <si>
+    <t>stepdown-stepup</t>
+  </si>
+  <si>
+    <t>stepdown-leapup</t>
+  </si>
+  <si>
+    <t>repeat-leapdown</t>
+  </si>
+  <si>
+    <t>repeat-stepdown</t>
+  </si>
+  <si>
+    <t>repeat-repeat</t>
+  </si>
+  <si>
+    <t>repeat-stepup</t>
+  </si>
+  <si>
+    <t>repeat-leapup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat-undefined </t>
+  </si>
+  <si>
+    <t>stepup-leapdown</t>
+  </si>
+  <si>
+    <t>stepup-stepdown</t>
+  </si>
+  <si>
+    <t>stepup-repeat</t>
+  </si>
+  <si>
+    <t>stepup-leapup</t>
+  </si>
+  <si>
+    <t>leapup-leapdown</t>
+  </si>
+  <si>
+    <t>leapup-stepdown</t>
+  </si>
+  <si>
+    <t>leapup-repeat</t>
+  </si>
+  <si>
+    <t>leapup-stepup</t>
+  </si>
+  <si>
+    <t>leapup-leapup</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HG20"/>
+  <dimension ref="A1:HG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="M6" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5692,7 +5770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -5715,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -5738,7 +5816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -5761,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -5784,9 +5862,597 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O24" t="s">
+        <v>247</v>
+      </c>
+      <c r="P24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>251</v>
+      </c>
+      <c r="R24" t="s">
+        <v>239</v>
+      </c>
+      <c r="S24" t="s">
+        <v>246</v>
+      </c>
+      <c r="T24" t="s">
+        <v>233</v>
+      </c>
+      <c r="U24" t="s">
+        <v>241</v>
+      </c>
+      <c r="V24" t="s">
+        <v>237</v>
+      </c>
+      <c r="W24" t="s">
+        <v>248</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <f>SUM(B25:Z25)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26:AA29" si="0">SUM(B26:Z26)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>53</v>
+      </c>
+      <c r="G28">
+        <v>47</v>
+      </c>
+      <c r="H28">
+        <v>36</v>
+      </c>
+      <c r="I28">
+        <v>39</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>14</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <v>9</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="AB29">
+        <f>SUM(AA25:AA29)</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30">
+        <v>185</v>
+      </c>
+      <c r="C30">
+        <v>173</v>
+      </c>
+      <c r="D30">
+        <v>153</v>
+      </c>
+      <c r="E30">
+        <v>88</v>
+      </c>
+      <c r="F30">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>80</v>
+      </c>
+      <c r="H30">
+        <v>65</v>
+      </c>
+      <c r="I30">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>42</v>
+      </c>
+      <c r="L30">
+        <v>41</v>
+      </c>
+      <c r="M30">
+        <v>36</v>
+      </c>
+      <c r="N30">
+        <v>31</v>
+      </c>
+      <c r="O30">
+        <v>26</v>
+      </c>
+      <c r="P30">
+        <v>20</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+      <c r="R30">
+        <v>18</v>
+      </c>
+      <c r="S30">
+        <v>18</v>
+      </c>
+      <c r="T30">
+        <v>13</v>
+      </c>
+      <c r="U30">
+        <v>11</v>
+      </c>
+      <c r="V30">
+        <v>9</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>5</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30">
+        <f>SUM(B30:Z30)</f>
+        <v>1240</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState columnSort="1" ref="A2:HG8">
-    <sortCondition descending="1" ref="A8:HG8"/>
+  <sortState columnSort="1" ref="A24:Z30">
+    <sortCondition descending="1" ref="A30:Z30"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/catsmat/Documentation/Trigram results for Proportional canons.xlsx
+++ b/catsmat/Documentation/Trigram results for Proportional canons.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="433">
   <si>
     <t>trigrams</t>
   </si>
@@ -1276,6 +1276,48 @@
   </si>
   <si>
     <t>Part: T, Part ID: P3</t>
+  </si>
+  <si>
+    <t>0603e-Missa_Lhomme_arme_super_voces_musicales-Agnus</t>
+  </si>
+  <si>
+    <t>General data for 0603e-Missa_Lhomme_arme_super_voces_musicales-Agnus</t>
+  </si>
+  <si>
+    <t>A0@2</t>
+  </si>
+  <si>
+    <t>&lt;RHYTHM_TYPE&gt;crochet&lt;\RHYTHM_TYPE&gt;&lt;DOTS&gt;0&lt;\DOTS&gt;&lt;TIME_MOD&gt;3/2&lt;\TIME_MOD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RHYTHM_TYPE&gt;minim&lt;\RHYTHM_TYPE&gt;&lt;DOTS&gt;0&lt;\DOTS&gt;&lt;TIME_MOD&gt;3/2&lt;\TIME_MOD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RHYTHM_TYPE&gt;minim&lt;\RHYTHM_TYPE&gt;&lt;DOTS&gt;1&lt;\DOTS&gt;&lt;TIME_MOD&gt;3/2&lt;\TIME_MOD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RHYTHM_TYPE&gt;semibreve&lt;\RHYTHM_TYPE&gt;&lt;DOTS&gt;0&lt;\DOTS&gt;&lt;TIME_MOD&gt;3/2&lt;\TIME_MOD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RHYTHM_TYPE&gt;semibreve&lt;\RHYTHM_TYPE&gt;&lt;DOTS&gt;1&lt;\DOTS&gt;&lt;TIME_MOD&gt;3/2&lt;\TIME_MOD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;RHYTHM_TYPE&gt;breve&lt;\RHYTHM_TYPE&gt;&lt;DOTS&gt;0&lt;\DOTS&gt;&lt;TIME_MOD&gt;3/2&lt;\TIME_MOD&gt;</t>
+  </si>
+  <si>
+    <t>**** Canonic techniques for 0603e-Missa_Lhomme_arme_super_voces_musicales-Agnus ****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interval: per4 \ </t>
+  </si>
+  <si>
+    <t>Part: Superius, Part ID: P1</t>
+  </si>
+  <si>
+    <t>Part: Altus, Part ID: P2</t>
+  </si>
+  <si>
+    <t>Part: Bassus, Part ID: P3</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ183"/>
+  <dimension ref="A1:JJ210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12061,24 +12103,47 @@
     </row>
     <row r="26" spans="1:270">
       <c r="A26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:270">
+      <c r="A27" t="s">
         <v>220</v>
       </c>
-      <c r="B26">
-        <v>557</v>
-      </c>
-      <c r="C26">
-        <v>146</v>
-      </c>
-      <c r="D26">
-        <v>160</v>
-      </c>
-      <c r="E26">
-        <v>110</v>
-      </c>
-      <c r="F26">
-        <v>417</v>
-      </c>
-      <c r="G26">
+      <c r="B27">
+        <v>609</v>
+      </c>
+      <c r="C27">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <v>202</v>
+      </c>
+      <c r="E27">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>453</v>
+      </c>
+      <c r="G27">
         <v>7</v>
       </c>
     </row>
@@ -12098,76 +12163,76 @@
         <v>229</v>
       </c>
       <c r="C30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
         <v>233</v>
       </c>
-      <c r="D30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" t="s">
-        <v>253</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" t="s">
         <v>235</v>
       </c>
-      <c r="G30" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" t="s">
-        <v>252</v>
-      </c>
       <c r="I30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s">
         <v>239</v>
       </c>
-      <c r="J30" t="s">
-        <v>248</v>
-      </c>
-      <c r="K30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L30" t="s">
-        <v>243</v>
-      </c>
       <c r="M30" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N30" t="s">
         <v>241</v>
       </c>
       <c r="O30" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>244</v>
+      </c>
+      <c r="R30" t="s">
+        <v>245</v>
+      </c>
+      <c r="S30" t="s">
         <v>246</v>
       </c>
-      <c r="P30" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="T30" t="s">
+        <v>247</v>
+      </c>
+      <c r="U30" t="s">
+        <v>248</v>
+      </c>
+      <c r="V30" t="s">
+        <v>249</v>
+      </c>
+      <c r="W30" t="s">
         <v>250</v>
       </c>
-      <c r="R30" t="s">
-        <v>238</v>
-      </c>
-      <c r="S30" t="s">
-        <v>245</v>
-      </c>
-      <c r="T30" t="s">
-        <v>232</v>
-      </c>
-      <c r="U30" t="s">
-        <v>240</v>
-      </c>
-      <c r="V30" t="s">
-        <v>236</v>
-      </c>
-      <c r="W30" t="s">
-        <v>247</v>
-      </c>
       <c r="X30" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="Z30" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:270">
@@ -12178,80 +12243,76 @@
         <v>30</v>
       </c>
       <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
         <v>24</v>
       </c>
-      <c r="D31">
-        <v>22</v>
-      </c>
-      <c r="E31">
-        <v>21</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
       <c r="G31">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
         <v>6</v>
       </c>
-      <c r="J31">
-        <v>8</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
       <c r="M31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>3</v>
       </c>
       <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
         <v>7</v>
       </c>
-      <c r="P31">
-        <v>5</v>
-      </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <f>SUM(B31:Z31)</f>
-        <v>192</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:270">
@@ -12262,80 +12323,76 @@
         <v>25</v>
       </c>
       <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>27</v>
       </c>
-      <c r="D32">
-        <v>28</v>
-      </c>
-      <c r="E32">
-        <v>20</v>
-      </c>
-      <c r="F32">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>7</v>
       </c>
-      <c r="J32">
-        <v>5</v>
-      </c>
-      <c r="K32">
-        <v>12</v>
-      </c>
       <c r="L32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>8</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>28</v>
+      </c>
+      <c r="W32">
         <v>3</v>
       </c>
-      <c r="R32">
-        <v>7</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
       <c r="X32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z32">
-        <v>2</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" ref="AA32:AA35" si="0">SUM(B32:Z32)</f>
-        <v>183</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -12346,64 +12403,64 @@
         <v>18</v>
       </c>
       <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>16</v>
       </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>13</v>
       </c>
-      <c r="G33">
-        <v>8</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>2</v>
       </c>
       <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>3</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
       </c>
       <c r="S33">
         <v>3</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -12412,14 +12469,10 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -12430,80 +12483,76 @@
         <v>96</v>
       </c>
       <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
         <v>93</v>
       </c>
-      <c r="D34">
-        <v>80</v>
-      </c>
-      <c r="E34">
-        <v>35</v>
-      </c>
-      <c r="F34">
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
         <v>53</v>
       </c>
-      <c r="G34">
-        <v>47</v>
-      </c>
-      <c r="H34">
-        <v>36</v>
-      </c>
       <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
         <v>39</v>
       </c>
-      <c r="J34">
-        <v>25</v>
-      </c>
-      <c r="K34">
-        <v>20</v>
-      </c>
-      <c r="L34">
-        <v>13</v>
-      </c>
       <c r="M34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>14</v>
       </c>
       <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>13</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>11</v>
+      </c>
+      <c r="S34">
         <v>12</v>
       </c>
-      <c r="P34">
-        <v>7</v>
-      </c>
-      <c r="Q34">
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <v>25</v>
+      </c>
+      <c r="V34">
+        <v>80</v>
+      </c>
+      <c r="W34">
         <v>17</v>
       </c>
-      <c r="R34">
-        <v>8</v>
-      </c>
-      <c r="S34">
-        <v>11</v>
-      </c>
-      <c r="T34">
-        <v>9</v>
-      </c>
-      <c r="U34">
-        <v>6</v>
-      </c>
-      <c r="V34">
-        <v>6</v>
-      </c>
-      <c r="W34">
-        <v>6</v>
-      </c>
       <c r="X34">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Y34">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="0"/>
-        <v>652</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -12514,46 +12563,46 @@
         <v>16</v>
       </c>
       <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>13</v>
       </c>
-      <c r="D35">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>6</v>
       </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
       <c r="I35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>6</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>4</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -12562,205 +12611,242 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="AB35">
         <f>SUM(AA31:AA35)</f>
-        <v>1240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" t="s">
+        <v>419</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>13</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>15</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>16</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" t="s">
         <v>220</v>
       </c>
-      <c r="B36">
-        <v>185</v>
-      </c>
-      <c r="C36">
-        <v>173</v>
-      </c>
-      <c r="D36">
-        <v>153</v>
-      </c>
-      <c r="E36">
-        <v>88</v>
-      </c>
-      <c r="F36">
-        <v>85</v>
-      </c>
-      <c r="G36">
-        <v>80</v>
-      </c>
-      <c r="H36">
+      <c r="B37">
+        <v>197</v>
+      </c>
+      <c r="C37">
+        <v>87</v>
+      </c>
+      <c r="D37">
+        <v>54</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>190</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>92</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>74</v>
+      </c>
+      <c r="M37">
+        <v>11</v>
+      </c>
+      <c r="N37">
+        <v>46</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
+      </c>
+      <c r="P37">
+        <v>46</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>18</v>
+      </c>
+      <c r="S37">
+        <v>26</v>
+      </c>
+      <c r="T37">
+        <v>7</v>
+      </c>
+      <c r="U37">
+        <v>51</v>
+      </c>
+      <c r="V37">
+        <v>169</v>
+      </c>
+      <c r="W37">
+        <v>20</v>
+      </c>
+      <c r="X37">
+        <v>44</v>
+      </c>
+      <c r="Y37">
         <v>65</v>
       </c>
-      <c r="I36">
-        <v>61</v>
-      </c>
-      <c r="J36">
-        <v>46</v>
-      </c>
-      <c r="K36">
-        <v>42</v>
-      </c>
-      <c r="L36">
-        <v>41</v>
-      </c>
-      <c r="M36">
-        <v>36</v>
-      </c>
-      <c r="N36">
-        <v>31</v>
-      </c>
-      <c r="O36">
-        <v>26</v>
-      </c>
-      <c r="P36">
-        <v>20</v>
-      </c>
-      <c r="Q36">
-        <v>20</v>
-      </c>
-      <c r="R36">
-        <v>18</v>
-      </c>
-      <c r="S36">
-        <v>18</v>
-      </c>
-      <c r="T36">
-        <v>13</v>
-      </c>
-      <c r="U36">
-        <v>11</v>
-      </c>
-      <c r="V36">
-        <v>9</v>
-      </c>
-      <c r="W36">
-        <v>7</v>
-      </c>
-      <c r="X36">
-        <v>5</v>
-      </c>
-      <c r="Y36">
-        <v>4</v>
-      </c>
-      <c r="Z36">
-        <v>3</v>
-      </c>
-      <c r="AA36">
-        <f>SUM(B36:Z36)</f>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" t="s">
+      <c r="Z37">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
-      <c r="A40" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>258</v>
-      </c>
-      <c r="B41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" t="s">
-        <v>260</v>
-      </c>
-      <c r="D41" t="s">
-        <v>261</v>
-      </c>
-      <c r="E41" t="s">
-        <v>262</v>
-      </c>
-      <c r="F41" t="s">
-        <v>263</v>
-      </c>
-      <c r="G41" t="s">
-        <v>264</v>
-      </c>
-      <c r="H41" t="s">
-        <v>265</v>
-      </c>
-      <c r="I41" t="s">
-        <v>266</v>
-      </c>
-      <c r="J41" t="s">
-        <v>267</v>
-      </c>
-      <c r="K41" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="B42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" t="s">
+        <v>264</v>
+      </c>
+      <c r="H42" t="s">
+        <v>265</v>
+      </c>
+      <c r="I42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -12795,7 +12881,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -12891,22 +12977,22 @@
         <v>269</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -12914,523 +13000,529 @@
         <v>270</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>68</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>86</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>60</v>
+        <v>321</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" t="s">
+        <v>284</v>
+      </c>
+      <c r="H50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I50" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>321</v>
-      </c>
-      <c r="B51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C51" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E51" t="s">
-        <v>282</v>
-      </c>
-      <c r="F51" t="s">
-        <v>283</v>
-      </c>
-      <c r="G51" t="s">
-        <v>284</v>
-      </c>
-      <c r="H51" t="s">
-        <v>285</v>
-      </c>
-      <c r="I51" t="s">
-        <v>286</v>
+        <v>269</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>66</v>
+      </c>
+      <c r="E51">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" t="s">
-        <v>271</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <v>29</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>220</v>
-      </c>
-      <c r="B55">
-        <v>20</v>
-      </c>
-      <c r="C55">
-        <v>41</v>
-      </c>
-      <c r="D55">
-        <v>95</v>
-      </c>
-      <c r="E55">
-        <v>19</v>
-      </c>
-      <c r="F55">
-        <v>11</v>
-      </c>
-      <c r="G55">
-        <v>14</v>
-      </c>
-      <c r="H55">
-        <v>7</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" t="s">
+        <v>290</v>
+      </c>
+      <c r="E56" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" t="s">
+        <v>260</v>
+      </c>
+      <c r="G56" t="s">
+        <v>261</v>
+      </c>
+      <c r="H56" t="s">
+        <v>262</v>
+      </c>
+      <c r="I56" t="s">
+        <v>291</v>
+      </c>
+      <c r="J56" t="s">
+        <v>263</v>
+      </c>
+      <c r="K56" t="s">
+        <v>264</v>
+      </c>
+      <c r="L56" t="s">
+        <v>265</v>
+      </c>
+      <c r="M56" t="s">
+        <v>266</v>
+      </c>
+      <c r="N56" t="s">
+        <v>292</v>
+      </c>
+      <c r="O56" t="s">
+        <v>267</v>
+      </c>
+      <c r="P56" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>269</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>27</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>8</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>258</v>
-      </c>
-      <c r="B58" t="s">
-        <v>288</v>
-      </c>
-      <c r="C58" t="s">
-        <v>289</v>
-      </c>
-      <c r="D58" t="s">
-        <v>290</v>
-      </c>
-      <c r="E58" t="s">
-        <v>259</v>
-      </c>
-      <c r="F58" t="s">
-        <v>260</v>
-      </c>
-      <c r="G58" t="s">
-        <v>261</v>
-      </c>
-      <c r="H58" t="s">
-        <v>262</v>
-      </c>
-      <c r="I58" t="s">
-        <v>291</v>
-      </c>
-      <c r="J58" t="s">
-        <v>263</v>
-      </c>
-      <c r="K58" t="s">
-        <v>264</v>
-      </c>
-      <c r="L58" t="s">
-        <v>265</v>
-      </c>
-      <c r="M58" t="s">
-        <v>266</v>
-      </c>
-      <c r="N58" t="s">
-        <v>292</v>
-      </c>
-      <c r="O58" t="s">
-        <v>267</v>
-      </c>
-      <c r="P58" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>19</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>18</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>6</v>
+      </c>
+      <c r="P58">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K60">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P60">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>271</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>9</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>7</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" t="s">
+        <v>296</v>
+      </c>
+      <c r="G61" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I61" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>8</v>
-      </c>
-      <c r="J62">
-        <v>23</v>
-      </c>
-      <c r="K62">
-        <v>46</v>
-      </c>
-      <c r="L62">
-        <v>9</v>
-      </c>
-      <c r="M62">
-        <v>38</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>14</v>
-      </c>
-      <c r="P62">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>272</v>
-      </c>
-      <c r="B63" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" t="s">
-        <v>294</v>
-      </c>
-      <c r="D63" t="s">
-        <v>295</v>
-      </c>
-      <c r="E63" t="s">
-        <v>273</v>
-      </c>
-      <c r="F63" t="s">
-        <v>296</v>
-      </c>
-      <c r="G63" t="s">
-        <v>297</v>
-      </c>
-      <c r="H63" t="s">
-        <v>275</v>
-      </c>
-      <c r="I63" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>24</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B64">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -13438,330 +13530,378 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>54</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E65">
         <v>24</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>271</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>17</v>
-      </c>
-      <c r="H66">
-        <v>6</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="B66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" t="s">
+        <v>300</v>
+      </c>
+      <c r="F66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G66" t="s">
+        <v>302</v>
+      </c>
+      <c r="H66" t="s">
+        <v>285</v>
+      </c>
+      <c r="I66" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F67">
+        <v>6</v>
+      </c>
+      <c r="G67">
         <v>3</v>
       </c>
-      <c r="G67">
-        <v>18</v>
-      </c>
       <c r="H67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>321</v>
-      </c>
-      <c r="B68" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D68" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" t="s">
-        <v>301</v>
-      </c>
-      <c r="G68" t="s">
-        <v>302</v>
-      </c>
-      <c r="H68" t="s">
-        <v>285</v>
-      </c>
-      <c r="I68" t="s">
-        <v>286</v>
+        <v>270</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>21</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B69">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B70">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C70">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>62</v>
+      </c>
+      <c r="E70">
+        <v>55</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70">
         <v>7</v>
       </c>
-      <c r="D70">
-        <v>23</v>
-      </c>
-      <c r="E70">
-        <v>21</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
       <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>7</v>
-      </c>
-      <c r="E71">
-        <v>7</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72">
-        <v>33</v>
-      </c>
-      <c r="C72">
-        <v>17</v>
-      </c>
-      <c r="D72">
-        <v>62</v>
-      </c>
-      <c r="E72">
-        <v>55</v>
-      </c>
-      <c r="F72">
-        <v>12</v>
-      </c>
-      <c r="G72">
-        <v>8</v>
-      </c>
-      <c r="H72">
-        <v>7</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" t="s">
+        <v>260</v>
+      </c>
+      <c r="D73" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" t="s">
+        <v>304</v>
+      </c>
+      <c r="I73" t="s">
+        <v>265</v>
+      </c>
+      <c r="J73" t="s">
+        <v>266</v>
+      </c>
+      <c r="K73" t="s">
+        <v>292</v>
+      </c>
+      <c r="L73" t="s">
+        <v>267</v>
+      </c>
+      <c r="M73" t="s">
+        <v>268</v>
+      </c>
+      <c r="N73" t="s">
+        <v>305</v>
+      </c>
+      <c r="O73" t="s">
+        <v>306</v>
+      </c>
+      <c r="P73" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>303</v>
+        <v>269</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>12</v>
+      </c>
+      <c r="J74">
+        <v>11</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>13</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+      <c r="P74">
+        <v>14</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>258</v>
-      </c>
-      <c r="B75" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" t="s">
-        <v>260</v>
-      </c>
-      <c r="D75" t="s">
-        <v>261</v>
-      </c>
-      <c r="E75" t="s">
-        <v>262</v>
-      </c>
-      <c r="F75" t="s">
-        <v>263</v>
-      </c>
-      <c r="G75" t="s">
-        <v>264</v>
-      </c>
-      <c r="H75" t="s">
-        <v>304</v>
-      </c>
-      <c r="I75" t="s">
-        <v>265</v>
-      </c>
-      <c r="J75" t="s">
-        <v>266</v>
-      </c>
-      <c r="K75" t="s">
-        <v>292</v>
-      </c>
-      <c r="L75" t="s">
-        <v>267</v>
-      </c>
-      <c r="M75" t="s">
-        <v>268</v>
-      </c>
-      <c r="N75" t="s">
-        <v>305</v>
-      </c>
-      <c r="O75" t="s">
-        <v>306</v>
-      </c>
-      <c r="P75" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>308</v>
+        <v>270</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>9</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J76">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M76">
         <v>14</v>
@@ -13781,845 +13921,845 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>270</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77">
-        <v>4</v>
-      </c>
-      <c r="F77">
-        <v>5</v>
-      </c>
-      <c r="G77">
-        <v>7</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>5</v>
-      </c>
-      <c r="J77">
-        <v>9</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="B77" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" t="s">
+        <v>297</v>
+      </c>
+      <c r="E77" t="s">
+        <v>274</v>
+      </c>
+      <c r="F77" t="s">
+        <v>275</v>
+      </c>
+      <c r="G77" t="s">
+        <v>276</v>
+      </c>
+      <c r="H77" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B78">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <v>45</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>15</v>
+      </c>
+      <c r="F78">
         <v>3</v>
       </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78">
-        <v>4</v>
-      </c>
-      <c r="F78">
-        <v>10</v>
-      </c>
       <c r="G78">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>17</v>
-      </c>
-      <c r="J78">
-        <v>20</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>15</v>
-      </c>
-      <c r="M78">
-        <v>14</v>
-      </c>
-      <c r="N78">
-        <v>5</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-      <c r="P78">
-        <v>14</v>
-      </c>
-      <c r="Q78">
-        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>272</v>
-      </c>
-      <c r="B79" t="s">
-        <v>294</v>
-      </c>
-      <c r="C79" t="s">
-        <v>273</v>
-      </c>
-      <c r="D79" t="s">
-        <v>297</v>
-      </c>
-      <c r="E79" t="s">
-        <v>274</v>
-      </c>
-      <c r="F79" t="s">
-        <v>275</v>
-      </c>
-      <c r="G79" t="s">
-        <v>276</v>
-      </c>
-      <c r="H79" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>26</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>9</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B80">
         <v>23</v>
       </c>
       <c r="C80">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F80">
         <v>3</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>270</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>26</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>9</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
+        <v>321</v>
+      </c>
+      <c r="B81" t="s">
+        <v>279</v>
+      </c>
+      <c r="C81" t="s">
+        <v>280</v>
+      </c>
+      <c r="D81" t="s">
+        <v>281</v>
+      </c>
+      <c r="E81" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" t="s">
+        <v>283</v>
+      </c>
+      <c r="G81" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E82">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
       <c r="G82">
-        <v>9</v>
-      </c>
-      <c r="H82">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>321</v>
-      </c>
-      <c r="B83" t="s">
-        <v>279</v>
-      </c>
-      <c r="C83" t="s">
-        <v>280</v>
-      </c>
-      <c r="D83" t="s">
-        <v>281</v>
-      </c>
-      <c r="E83" t="s">
-        <v>300</v>
-      </c>
-      <c r="F83" t="s">
-        <v>283</v>
-      </c>
-      <c r="G83" t="s">
-        <v>309</v>
+        <v>270</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>21</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>62</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+      <c r="F84">
         <v>5</v>
       </c>
-      <c r="C84">
-        <v>18</v>
-      </c>
-      <c r="D84">
-        <v>41</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
       <c r="G84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" t="s">
-        <v>270</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85">
-        <v>9</v>
-      </c>
-      <c r="D85">
-        <v>21</v>
-      </c>
-      <c r="E85">
-        <v>5</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86">
-        <v>8</v>
-      </c>
-      <c r="C86">
-        <v>27</v>
-      </c>
-      <c r="D86">
-        <v>62</v>
-      </c>
-      <c r="E86">
-        <v>15</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86">
-        <v>4</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" t="s">
+        <v>263</v>
+      </c>
+      <c r="G87" t="s">
+        <v>311</v>
+      </c>
+      <c r="H87" t="s">
+        <v>264</v>
+      </c>
+      <c r="I87" t="s">
+        <v>265</v>
+      </c>
+      <c r="J87" t="s">
+        <v>266</v>
+      </c>
+      <c r="K87" t="s">
+        <v>267</v>
+      </c>
+      <c r="L87" t="s">
+        <v>268</v>
+      </c>
+      <c r="M87" t="s">
+        <v>305</v>
+      </c>
+      <c r="N87" t="s">
+        <v>306</v>
+      </c>
+      <c r="O87" t="s">
+        <v>307</v>
+      </c>
+      <c r="P87" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>310</v>
+        <v>269</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>38</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>30</v>
+      </c>
+      <c r="G88">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>74</v>
+      </c>
+      <c r="I88">
+        <v>54</v>
+      </c>
+      <c r="J88">
+        <v>46</v>
+      </c>
+      <c r="K88">
+        <v>38</v>
+      </c>
+      <c r="L88">
+        <v>75</v>
+      </c>
+      <c r="M88">
+        <v>7</v>
+      </c>
+      <c r="N88">
+        <v>16</v>
+      </c>
+      <c r="O88">
+        <v>23</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" t="s">
-        <v>260</v>
-      </c>
-      <c r="C89" t="s">
-        <v>261</v>
-      </c>
-      <c r="D89" t="s">
-        <v>262</v>
-      </c>
-      <c r="E89" t="s">
-        <v>291</v>
-      </c>
-      <c r="F89" t="s">
-        <v>263</v>
-      </c>
-      <c r="G89" t="s">
-        <v>311</v>
-      </c>
-      <c r="H89" t="s">
-        <v>264</v>
-      </c>
-      <c r="I89" t="s">
-        <v>265</v>
-      </c>
-      <c r="J89" t="s">
-        <v>266</v>
-      </c>
-      <c r="K89" t="s">
-        <v>267</v>
-      </c>
-      <c r="L89" t="s">
-        <v>268</v>
-      </c>
-      <c r="M89" t="s">
-        <v>305</v>
-      </c>
-      <c r="N89" t="s">
-        <v>306</v>
-      </c>
-      <c r="O89" t="s">
-        <v>307</v>
-      </c>
-      <c r="P89" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>308</v>
+        <v>270</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>35</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>31</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>66</v>
+      </c>
+      <c r="I89">
+        <v>49</v>
+      </c>
+      <c r="J89">
+        <v>41</v>
+      </c>
+      <c r="K89">
+        <v>38</v>
+      </c>
+      <c r="L89">
+        <v>66</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>18</v>
+      </c>
+      <c r="O89">
+        <v>24</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F90">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G90">
         <v>6</v>
       </c>
       <c r="H90">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="I90">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="J90">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="K90">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="L90">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N90">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O90">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="P90">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>270</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-      <c r="C91">
-        <v>35</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91">
-        <v>20</v>
-      </c>
-      <c r="F91">
-        <v>31</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>66</v>
-      </c>
-      <c r="I91">
-        <v>49</v>
-      </c>
-      <c r="J91">
-        <v>41</v>
-      </c>
-      <c r="K91">
-        <v>38</v>
-      </c>
-      <c r="L91">
-        <v>66</v>
-      </c>
-      <c r="M91">
-        <v>4</v>
-      </c>
-      <c r="N91">
-        <v>18</v>
-      </c>
-      <c r="O91">
-        <v>24</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>10</v>
+        <v>272</v>
+      </c>
+      <c r="B91" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" t="s">
+        <v>314</v>
+      </c>
+      <c r="E91" t="s">
+        <v>273</v>
+      </c>
+      <c r="F91" t="s">
+        <v>297</v>
+      </c>
+      <c r="G91" t="s">
+        <v>274</v>
+      </c>
+      <c r="H91" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="D92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="F92">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H92">
-        <v>140</v>
-      </c>
-      <c r="I92">
-        <v>103</v>
-      </c>
-      <c r="J92">
-        <v>87</v>
-      </c>
-      <c r="K92">
-        <v>76</v>
-      </c>
-      <c r="L92">
-        <v>141</v>
-      </c>
-      <c r="M92">
-        <v>11</v>
-      </c>
-      <c r="N92">
-        <v>34</v>
-      </c>
-      <c r="O92">
-        <v>47</v>
-      </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>272</v>
-      </c>
-      <c r="B93" t="s">
-        <v>313</v>
-      </c>
-      <c r="C93" t="s">
-        <v>294</v>
-      </c>
-      <c r="D93" t="s">
-        <v>314</v>
-      </c>
-      <c r="E93" t="s">
-        <v>273</v>
-      </c>
-      <c r="F93" t="s">
-        <v>297</v>
-      </c>
-      <c r="G93" t="s">
-        <v>274</v>
-      </c>
-      <c r="H93" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>201</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>156</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93">
+        <v>12</v>
+      </c>
+      <c r="H93">
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C94">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G94">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>270</v>
-      </c>
-      <c r="B95">
-        <v>9</v>
-      </c>
-      <c r="C95">
-        <v>201</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>156</v>
-      </c>
-      <c r="F95">
-        <v>6</v>
-      </c>
-      <c r="G95">
-        <v>12</v>
-      </c>
-      <c r="H95">
-        <v>21</v>
+        <v>321</v>
+      </c>
+      <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95" t="s">
+        <v>300</v>
+      </c>
+      <c r="F95" t="s">
+        <v>301</v>
+      </c>
+      <c r="G95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H95" t="s">
+        <v>285</v>
+      </c>
+      <c r="I95" t="s">
+        <v>315</v>
+      </c>
+      <c r="J95" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C96">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="E96">
-        <v>349</v>
+        <v>47</v>
       </c>
       <c r="F96">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G96">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H96">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>321</v>
-      </c>
-      <c r="B97" t="s">
-        <v>279</v>
-      </c>
-      <c r="C97" t="s">
-        <v>280</v>
-      </c>
-      <c r="D97" t="s">
-        <v>281</v>
-      </c>
-      <c r="E97" t="s">
-        <v>300</v>
-      </c>
-      <c r="F97" t="s">
-        <v>301</v>
-      </c>
-      <c r="G97" t="s">
-        <v>284</v>
-      </c>
-      <c r="H97" t="s">
-        <v>285</v>
-      </c>
-      <c r="I97" t="s">
-        <v>315</v>
-      </c>
-      <c r="J97" t="s">
-        <v>286</v>
+        <v>270</v>
+      </c>
+      <c r="B97">
+        <v>36</v>
+      </c>
+      <c r="C97">
+        <v>63</v>
+      </c>
+      <c r="D97">
+        <v>165</v>
+      </c>
+      <c r="E97">
+        <v>45</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97">
+        <v>15</v>
+      </c>
+      <c r="H97">
+        <v>16</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B98">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C98">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D98">
-        <v>162</v>
+        <v>327</v>
       </c>
       <c r="E98">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F98">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G98">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" t="s">
-        <v>270</v>
-      </c>
-      <c r="B99">
-        <v>36</v>
-      </c>
-      <c r="C99">
-        <v>63</v>
-      </c>
-      <c r="D99">
-        <v>165</v>
-      </c>
-      <c r="E99">
-        <v>45</v>
-      </c>
-      <c r="F99">
-        <v>16</v>
-      </c>
-      <c r="G99">
-        <v>15</v>
-      </c>
-      <c r="H99">
-        <v>16</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>220</v>
-      </c>
-      <c r="B100">
-        <v>81</v>
-      </c>
-      <c r="C100">
-        <v>145</v>
-      </c>
-      <c r="D100">
-        <v>327</v>
-      </c>
-      <c r="E100">
-        <v>92</v>
-      </c>
-      <c r="F100">
-        <v>35</v>
-      </c>
-      <c r="G100">
-        <v>31</v>
-      </c>
-      <c r="H100">
-        <v>35</v>
-      </c>
-      <c r="I100">
-        <v>2</v>
-      </c>
-      <c r="J100">
-        <v>4</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" t="s">
+        <v>289</v>
+      </c>
+      <c r="E103" t="s">
+        <v>318</v>
+      </c>
+      <c r="F103" t="s">
+        <v>290</v>
+      </c>
+      <c r="G103" t="s">
+        <v>259</v>
+      </c>
+      <c r="H103" t="s">
+        <v>260</v>
+      </c>
+      <c r="I103" t="s">
+        <v>261</v>
+      </c>
+      <c r="J103" t="s">
+        <v>291</v>
+      </c>
+      <c r="K103" t="s">
+        <v>263</v>
+      </c>
+      <c r="L103" t="s">
+        <v>264</v>
+      </c>
+      <c r="M103" t="s">
+        <v>304</v>
+      </c>
+      <c r="N103" t="s">
+        <v>265</v>
+      </c>
+      <c r="O103" t="s">
+        <v>266</v>
+      </c>
+      <c r="P103" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>269</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>9</v>
+      </c>
+      <c r="L104">
+        <v>13</v>
+      </c>
+      <c r="M104">
+        <v>5</v>
+      </c>
+      <c r="N104">
+        <v>10</v>
+      </c>
+      <c r="O104">
+        <v>19</v>
+      </c>
+      <c r="P104">
+        <v>12</v>
+      </c>
+      <c r="Q104">
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>258</v>
-      </c>
-      <c r="B105" t="s">
-        <v>317</v>
-      </c>
-      <c r="C105" t="s">
-        <v>288</v>
-      </c>
-      <c r="D105" t="s">
-        <v>289</v>
-      </c>
-      <c r="E105" t="s">
-        <v>318</v>
-      </c>
-      <c r="F105" t="s">
-        <v>290</v>
-      </c>
-      <c r="G105" t="s">
-        <v>259</v>
-      </c>
-      <c r="H105" t="s">
-        <v>260</v>
-      </c>
-      <c r="I105" t="s">
-        <v>261</v>
-      </c>
-      <c r="J105" t="s">
-        <v>291</v>
-      </c>
-      <c r="K105" t="s">
-        <v>263</v>
-      </c>
-      <c r="L105" t="s">
-        <v>264</v>
-      </c>
-      <c r="M105" t="s">
-        <v>304</v>
-      </c>
-      <c r="N105" t="s">
-        <v>265</v>
-      </c>
-      <c r="O105" t="s">
-        <v>266</v>
-      </c>
-      <c r="P105" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <v>16</v>
+      </c>
+      <c r="H105">
+        <v>9</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -14648,427 +14788,821 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>270</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>8</v>
-      </c>
-      <c r="D107">
-        <v>12</v>
-      </c>
-      <c r="E107">
-        <v>3</v>
-      </c>
-      <c r="F107">
-        <v>7</v>
-      </c>
-      <c r="G107">
-        <v>16</v>
-      </c>
-      <c r="H107">
-        <v>9</v>
-      </c>
-      <c r="I107">
-        <v>4</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="B107" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" t="s">
+        <v>273</v>
+      </c>
+      <c r="D107" t="s">
+        <v>297</v>
+      </c>
+      <c r="E107" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D108">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F108">
-        <v>7</v>
-      </c>
-      <c r="G108">
-        <v>16</v>
-      </c>
-      <c r="H108">
-        <v>9</v>
-      </c>
-      <c r="I108">
-        <v>4</v>
-      </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-      <c r="K108">
-        <v>9</v>
-      </c>
-      <c r="L108">
-        <v>13</v>
-      </c>
-      <c r="M108">
-        <v>5</v>
-      </c>
-      <c r="N108">
-        <v>10</v>
-      </c>
-      <c r="O108">
-        <v>19</v>
-      </c>
-      <c r="P108">
-        <v>12</v>
-      </c>
-      <c r="Q108">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>272</v>
-      </c>
-      <c r="B109" t="s">
-        <v>294</v>
-      </c>
-      <c r="C109" t="s">
-        <v>273</v>
-      </c>
-      <c r="D109" t="s">
-        <v>297</v>
-      </c>
-      <c r="E109" t="s">
-        <v>274</v>
-      </c>
-      <c r="F109" t="s">
-        <v>319</v>
+        <v>270</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>35</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>24</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="B110">
         <v>15</v>
       </c>
       <c r="C110">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>270</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>35</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>24</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="B111" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" t="s">
+        <v>299</v>
+      </c>
+      <c r="E111" t="s">
+        <v>300</v>
+      </c>
+      <c r="F111" t="s">
+        <v>284</v>
+      </c>
+      <c r="G111" t="s">
+        <v>285</v>
+      </c>
+      <c r="H111" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>16</v>
+      </c>
+      <c r="D112">
+        <v>34</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>25</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" t="s">
         <v>220</v>
       </c>
-      <c r="B112">
+      <c r="B114">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <v>59</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" t="s">
+        <v>421</v>
+      </c>
+      <c r="C117" t="s">
+        <v>288</v>
+      </c>
+      <c r="D117" t="s">
+        <v>289</v>
+      </c>
+      <c r="E117" t="s">
+        <v>290</v>
+      </c>
+      <c r="F117" t="s">
+        <v>259</v>
+      </c>
+      <c r="G117" t="s">
+        <v>260</v>
+      </c>
+      <c r="H117" t="s">
+        <v>261</v>
+      </c>
+      <c r="I117" t="s">
+        <v>291</v>
+      </c>
+      <c r="J117" t="s">
+        <v>263</v>
+      </c>
+      <c r="K117" t="s">
+        <v>264</v>
+      </c>
+      <c r="L117" t="s">
+        <v>265</v>
+      </c>
+      <c r="M117" t="s">
+        <v>266</v>
+      </c>
+      <c r="N117" t="s">
+        <v>267</v>
+      </c>
+      <c r="O117" t="s">
+        <v>268</v>
+      </c>
+      <c r="P117" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" t="s">
+        <v>269</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>13</v>
+      </c>
+      <c r="L118">
+        <v>6</v>
+      </c>
+      <c r="M118">
+        <v>10</v>
+      </c>
+      <c r="N118">
+        <v>25</v>
+      </c>
+      <c r="O118">
+        <v>6</v>
+      </c>
+      <c r="P118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>5</v>
+      </c>
+      <c r="K119">
+        <v>5</v>
+      </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" t="s">
+        <v>271</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>8</v>
+      </c>
+      <c r="G120">
+        <v>17</v>
+      </c>
+      <c r="H120">
+        <v>7</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>11</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <v>21</v>
+      </c>
+      <c r="H121">
+        <v>13</v>
+      </c>
+      <c r="I121">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>9</v>
+      </c>
+      <c r="K121">
+        <v>18</v>
+      </c>
+      <c r="L121">
+        <v>12</v>
+      </c>
+      <c r="M121">
+        <v>10</v>
+      </c>
+      <c r="N121">
+        <v>25</v>
+      </c>
+      <c r="O121">
+        <v>6</v>
+      </c>
+      <c r="P121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" t="s">
+        <v>422</v>
+      </c>
+      <c r="C122" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" t="s">
+        <v>423</v>
+      </c>
+      <c r="E122" t="s">
+        <v>424</v>
+      </c>
+      <c r="F122" t="s">
+        <v>425</v>
+      </c>
+      <c r="G122" t="s">
+        <v>275</v>
+      </c>
+      <c r="H122" t="s">
+        <v>426</v>
+      </c>
+      <c r="I122" t="s">
+        <v>427</v>
+      </c>
+      <c r="J122" t="s">
+        <v>277</v>
+      </c>
+      <c r="K122" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
+        <v>269</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>39</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
+      <c r="I123">
+        <v>5</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>8</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>17</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>30</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126">
+        <v>20</v>
+      </c>
+      <c r="F126">
+        <v>39</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>46</v>
+      </c>
+      <c r="I126">
+        <v>5</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" t="s">
+        <v>321</v>
+      </c>
+      <c r="B127" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" t="s">
+        <v>298</v>
+      </c>
+      <c r="D127" t="s">
+        <v>281</v>
+      </c>
+      <c r="E127" t="s">
+        <v>282</v>
+      </c>
+      <c r="F127" t="s">
+        <v>301</v>
+      </c>
+      <c r="G127" t="s">
+        <v>284</v>
+      </c>
+      <c r="H127" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>9</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>14</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130">
+        <v>19</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
         <v>15</v>
       </c>
-      <c r="C112">
-        <v>77</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
+      <c r="E130">
+        <v>7</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131">
+        <v>42</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131">
         <v>39</v>
       </c>
-      <c r="F112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>321</v>
-      </c>
-      <c r="B113" t="s">
-        <v>279</v>
-      </c>
-      <c r="C113" t="s">
-        <v>280</v>
-      </c>
-      <c r="D113" t="s">
-        <v>299</v>
-      </c>
-      <c r="E113" t="s">
-        <v>300</v>
-      </c>
-      <c r="F113" t="s">
-        <v>284</v>
-      </c>
-      <c r="G113" t="s">
-        <v>285</v>
-      </c>
-      <c r="H113" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>269</v>
-      </c>
-      <c r="B114">
+      <c r="E131">
+        <v>21</v>
+      </c>
+      <c r="F131">
         <v>7</v>
       </c>
-      <c r="C114">
-        <v>16</v>
-      </c>
-      <c r="D114">
-        <v>34</v>
-      </c>
-      <c r="E114">
-        <v>3</v>
-      </c>
-      <c r="F114">
-        <v>2</v>
-      </c>
-      <c r="G114">
-        <v>3</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>270</v>
-      </c>
-      <c r="B115">
-        <v>11</v>
-      </c>
-      <c r="C115">
-        <v>10</v>
-      </c>
-      <c r="D115">
-        <v>25</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
-      <c r="F115">
-        <v>2</v>
-      </c>
-      <c r="G115">
-        <v>3</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>220</v>
-      </c>
-      <c r="B116">
-        <v>18</v>
-      </c>
-      <c r="C116">
-        <v>26</v>
-      </c>
-      <c r="D116">
-        <v>59</v>
-      </c>
-      <c r="E116">
-        <v>5</v>
-      </c>
-      <c r="F116">
-        <v>4</v>
-      </c>
-      <c r="G116">
+      <c r="G131">
+        <v>15</v>
+      </c>
+      <c r="H131">
         <v>6</v>
       </c>
-      <c r="H116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>418</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -15108,122 +15642,247 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>411</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>412</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
         <v>408</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
